--- a/testdata/график_поставок.xlsx
+++ b/testdata/график_поставок.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>bf 109 e-7</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>график поставок</t>
+  </si>
+  <si>
+    <t>Начальные самолёты фронтовых аэродромов</t>
+  </si>
+  <si>
+    <t>Сумма на филд</t>
   </si>
 </sst>
 </file>
@@ -248,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -266,6 +272,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -584,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,172 +2321,220 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B3:B5)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B8:B10)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B13:B18)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3">
+      <c r="B24">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f>SUM(B2:B4)</f>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <f>SUM(B21:B26)</f>
         <v>150</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>70</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>60</v>
-      </c>
-      <c r="F8">
-        <f>SUM(F2:F7)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>SUM(B7:B9)</f>
-        <v>150</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15">
-        <f>SUM(F9:F14)</f>
-        <v>150</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
